--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_10_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_10_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1035154.089250868</v>
+        <v>1069040.787100693</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1357972.940220759</v>
+        <v>1874181.923923952</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7745736.036100527</v>
+        <v>8041404.060596841</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9076206.204049168</v>
+        <v>8941529.918794077</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.62029119463083</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>25.62029119463083</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6263639150735023</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>17.76324689814358</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>23.55470292302859</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2968606583479769</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -858,22 +858,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>25.04785205983618</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -904,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.62029119463083</v>
+        <v>12.35200489467393</v>
       </c>
       <c r="G5" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H5" t="n">
-        <v>12.57565326968603</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W6" t="n">
-        <v>21.81976115797298</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>25.04785205983618</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,25 +1098,25 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>19.84491174912431</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>37.20662970553738</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>7.772547683598768</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1217,22 +1217,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F9" t="n">
-        <v>23.55470292302859</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>19.72731862540289</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>24.5704967621155</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>160.6498279277416</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.0939383649079</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0951878185031</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>163.8736603312728</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8043312840119</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2489489758183</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>307.0124596644123</v>
       </c>
     </row>
     <row r="12">
@@ -1451,25 +1451,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>90.60794739280706</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>127.5528879389924</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6967525990113</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9890601559393</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>197.5578136312285</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8988317806985</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>36.86740133315038</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>181.3225108715259</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>363.5061695828119</v>
       </c>
       <c r="G14" t="n">
-        <v>414.0939383649079</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>163.8736603312728</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.93688832069192</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8043312840119</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>278.8191377453176</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6967525990113</v>
+        <v>128.5430811172678</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.12864237349785</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6698029925029</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5578136312285</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8988317806985</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>48.7850463553495</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>6.59601561836862</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2894534100694</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>15.03903217323486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>72.45193186793742</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>257.3050783981026</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>88.83490402252897</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>46.34008948259129</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>66.23525597315208</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498666</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2168,7 +2168,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554002</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>10.70611463921582</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>306.8926904458839</v>
+        <v>84.67670117615847</v>
       </c>
     </row>
     <row r="24">
@@ -2481,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>7.511689643934695</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>95.41719165015269</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>97.26510158676872</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.4526127311942</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>34.67699025250678</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>97.42438893504207</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -2854,13 +2854,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>174.9442930587126</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>247.8767211222546</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>171.5185810750131</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>128.6652719985047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>36.31606325004064</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
@@ -3325,13 +3325,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>217.2642121004651</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>63.01667685547804</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>57.73991206543085</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>325.9116350125196</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>298.9157210668306</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>140.8171000393984</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>197.2982592812052</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>336.7113239457769</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>190.4581545353203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>60.52346259418279</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U42" t="n">
-        <v>136.8200609780482</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>79.57033125550491</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>217.2367324792702</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3982,22 +3982,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>382.1341988944474</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>135.1762803692896</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>42.24408110754189</v>
       </c>
       <c r="G45" t="n">
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>133.3896575460135</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>196.8897623984489</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>74.09260911231073</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>268.8725363918118</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.38954941029624</v>
+        <v>64.54871502261837</v>
       </c>
       <c r="C2" t="n">
-        <v>92.38954941029624</v>
+        <v>64.54871502261837</v>
       </c>
       <c r="D2" t="n">
-        <v>92.38954941029624</v>
+        <v>36.68000263846065</v>
       </c>
       <c r="E2" t="n">
-        <v>92.38954941029624</v>
+        <v>36.68000263846065</v>
       </c>
       <c r="F2" t="n">
-        <v>66.51046739551762</v>
+        <v>29.73450188925718</v>
       </c>
       <c r="G2" t="n">
-        <v>40.631385380739</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="H2" t="n">
-        <v>39.99869455743244</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="I2" t="n">
-        <v>14.11961254265382</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="J2" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K2" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L2" t="n">
-        <v>2.049623295570466</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M2" t="n">
-        <v>26.38889993046976</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N2" t="n">
-        <v>51.75298821315428</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O2" t="n">
-        <v>77.1170764958388</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P2" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q2" t="n">
-        <v>92.38954941029624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R2" t="n">
-        <v>92.38954941029624</v>
+        <v>92.41742740677608</v>
       </c>
       <c r="S2" t="n">
-        <v>92.38954941029624</v>
+        <v>64.54871502261837</v>
       </c>
       <c r="T2" t="n">
-        <v>92.38954941029624</v>
+        <v>64.54871502261837</v>
       </c>
       <c r="U2" t="n">
-        <v>92.38954941029624</v>
+        <v>64.54871502261837</v>
       </c>
       <c r="V2" t="n">
-        <v>92.38954941029624</v>
+        <v>64.54871502261837</v>
       </c>
       <c r="W2" t="n">
-        <v>92.38954941029624</v>
+        <v>64.54871502261837</v>
       </c>
       <c r="X2" t="n">
-        <v>92.38954941029624</v>
+        <v>64.54871502261837</v>
       </c>
       <c r="Y2" t="n">
-        <v>92.38954941029624</v>
+        <v>64.54871502261837</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.68686933990632</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C3" t="n">
-        <v>79.68686933990632</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="D3" t="n">
-        <v>53.80778732512771</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="E3" t="n">
-        <v>27.92870531034908</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="F3" t="n">
-        <v>2.049623295570466</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="G3" t="n">
-        <v>2.049623295570466</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="H3" t="n">
-        <v>2.049623295570466</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="I3" t="n">
-        <v>2.049623295570466</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="J3" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K3" t="n">
-        <v>27.41371157825499</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L3" t="n">
-        <v>52.77779986093951</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M3" t="n">
-        <v>78.14188814362403</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N3" t="n">
-        <v>78.14188814362403</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O3" t="n">
-        <v>78.14188814362403</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P3" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q3" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R3" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S3" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T3" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U3" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V3" t="n">
-        <v>102.4811647785233</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W3" t="n">
-        <v>102.4811647785233</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X3" t="n">
-        <v>102.4811647785233</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y3" t="n">
-        <v>102.4811647785233</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.72300074896609</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="C4" t="n">
-        <v>50.72300074896609</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="D4" t="n">
-        <v>50.72300074896609</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="E4" t="n">
-        <v>24.84391873418747</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="F4" t="n">
-        <v>24.84391873418747</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="G4" t="n">
-        <v>24.84391873418747</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="H4" t="n">
-        <v>24.84391873418747</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="I4" t="n">
-        <v>24.84391873418747</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="J4" t="n">
-        <v>24.54405948333093</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="K4" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L4" t="n">
-        <v>27.41371157825499</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M4" t="n">
-        <v>52.77779986093951</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N4" t="n">
-        <v>78.14188814362404</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O4" t="n">
-        <v>102.4811647785233</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P4" t="n">
-        <v>102.4811647785233</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Q4" t="n">
-        <v>102.4811647785233</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="R4" t="n">
-        <v>76.6020827637447</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="S4" t="n">
-        <v>50.72300074896609</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="T4" t="n">
-        <v>50.72300074896609</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="U4" t="n">
-        <v>50.72300074896609</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="V4" t="n">
-        <v>50.72300074896609</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="W4" t="n">
-        <v>50.72300074896609</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="X4" t="n">
-        <v>50.72300074896609</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="Y4" t="n">
-        <v>50.72300074896609</v>
+        <v>52.57035059274347</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.38954941029625</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C5" t="n">
-        <v>92.38954941029625</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="D5" t="n">
-        <v>92.38954941029625</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="E5" t="n">
-        <v>66.51046739551764</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="F5" t="n">
-        <v>40.63138538073902</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="G5" t="n">
-        <v>14.7523033659604</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="H5" t="n">
-        <v>2.049623295570467</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="I5" t="n">
-        <v>2.049623295570467</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="J5" t="n">
-        <v>2.049623295570467</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K5" t="n">
-        <v>2.049623295570467</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L5" t="n">
-        <v>2.049623295570467</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M5" t="n">
-        <v>26.38889993046975</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N5" t="n">
-        <v>51.75298821315427</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O5" t="n">
-        <v>77.1170764958388</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P5" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q5" t="n">
-        <v>92.38954941029625</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R5" t="n">
-        <v>92.38954941029625</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S5" t="n">
-        <v>92.38954941029625</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T5" t="n">
-        <v>92.38954941029625</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U5" t="n">
-        <v>92.38954941029625</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V5" t="n">
-        <v>92.38954941029625</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W5" t="n">
-        <v>92.38954941029625</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X5" t="n">
-        <v>92.38954941029625</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y5" t="n">
-        <v>92.38954941029625</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.803755948356181</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C6" t="n">
-        <v>2.803755948356181</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D6" t="n">
-        <v>2.803755948356181</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E6" t="n">
-        <v>2.803755948356181</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F6" t="n">
-        <v>2.803755948356181</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G6" t="n">
-        <v>2.803755948356181</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H6" t="n">
-        <v>2.803755948356181</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I6" t="n">
-        <v>2.803755948356181</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J6" t="n">
-        <v>2.049623295570467</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K6" t="n">
-        <v>2.049623295570467</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L6" t="n">
-        <v>2.049623295570467</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M6" t="n">
-        <v>26.38889993046975</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="N6" t="n">
-        <v>51.75298821315427</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="O6" t="n">
-        <v>77.1170764958388</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P6" t="n">
-        <v>102.4811647785233</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R6" t="n">
-        <v>102.4811647785233</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S6" t="n">
-        <v>102.4811647785233</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T6" t="n">
-        <v>76.60208276374472</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U6" t="n">
-        <v>50.7230007489661</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V6" t="n">
-        <v>24.84391873418748</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W6" t="n">
-        <v>2.803755948356181</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X6" t="n">
-        <v>2.803755948356181</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.803755948356181</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.049623295570467</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="C7" t="n">
-        <v>2.049623295570467</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="D7" t="n">
-        <v>2.049623295570467</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="E7" t="n">
-        <v>2.049623295570467</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="F7" t="n">
-        <v>2.049623295570467</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="G7" t="n">
-        <v>2.049623295570467</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="H7" t="n">
-        <v>2.049623295570467</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="I7" t="n">
-        <v>2.049623295570467</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="J7" t="n">
-        <v>2.049623295570467</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="K7" t="n">
-        <v>2.049623295570467</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L7" t="n">
-        <v>27.41371157825499</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M7" t="n">
-        <v>52.77779986093952</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N7" t="n">
-        <v>78.14188814362404</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O7" t="n">
-        <v>102.4811647785233</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P7" t="n">
-        <v>99.73223474306219</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Q7" t="n">
-        <v>99.73223474306219</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="R7" t="n">
-        <v>73.85315272828358</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="S7" t="n">
-        <v>47.97407071350496</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="T7" t="n">
-        <v>22.09498869872634</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="U7" t="n">
-        <v>22.09498869872634</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="V7" t="n">
-        <v>2.049623295570467</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="W7" t="n">
-        <v>2.049623295570467</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="X7" t="n">
-        <v>2.049623295570467</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.049623295570467</v>
+        <v>50.00249887508694</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.53106090472204</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="C8" t="n">
-        <v>44.53106090472204</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="D8" t="n">
-        <v>44.53106090472204</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="E8" t="n">
-        <v>44.53106090472204</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="F8" t="n">
-        <v>37.58556015551856</v>
+        <v>30.69401002537914</v>
       </c>
       <c r="G8" t="n">
-        <v>22.12824953417003</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="H8" t="n">
-        <v>22.12824953417003</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="I8" t="n">
-        <v>14.27719126790864</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>28.41772601812563</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L8" t="n">
-        <v>55.73185102583861</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M8" t="n">
-        <v>83.04597603355158</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N8" t="n">
-        <v>110.3601010412646</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O8" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>100.2684856730375</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R8" t="n">
-        <v>72.39977328887976</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S8" t="n">
-        <v>44.53106090472204</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T8" t="n">
-        <v>44.53106090472204</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="U8" t="n">
-        <v>44.53106090472204</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="V8" t="n">
-        <v>44.53106090472204</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="W8" t="n">
-        <v>44.53106090472204</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="X8" t="n">
-        <v>44.53106090472204</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.53106090472204</v>
+        <v>68.2764642733967</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D9" t="n">
-        <v>110.3601010412646</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="E9" t="n">
-        <v>110.3601010412646</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="F9" t="n">
-        <v>86.56747182608416</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="G9" t="n">
-        <v>58.69875944192644</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="H9" t="n">
-        <v>30.83004705776872</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="I9" t="n">
-        <v>2.961334673611005</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L9" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M9" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N9" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O9" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P9" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>105.7399236434024</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="C10" t="n">
-        <v>105.7399236434024</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="D10" t="n">
-        <v>105.7399236434024</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="E10" t="n">
-        <v>105.7399236434024</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="F10" t="n">
-        <v>105.7399236434024</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="G10" t="n">
-        <v>77.87121125924466</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="H10" t="n">
-        <v>50.00249887508694</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="I10" t="n">
-        <v>30.07591440498301</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="J10" t="n">
-        <v>2.207202020825291</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K10" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L10" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M10" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N10" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P10" t="n">
-        <v>105.7399236434024</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q10" t="n">
-        <v>105.7399236434024</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R10" t="n">
-        <v>105.7399236434024</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="S10" t="n">
-        <v>105.7399236434024</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="T10" t="n">
-        <v>105.7399236434024</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="U10" t="n">
-        <v>105.7399236434024</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="V10" t="n">
-        <v>105.7399236434024</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="W10" t="n">
-        <v>105.7399236434024</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="X10" t="n">
-        <v>105.7399236434024</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="Y10" t="n">
-        <v>105.7399236434024</v>
+        <v>25.66114634470771</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1534.245280312035</v>
+        <v>1350.723391701037</v>
       </c>
       <c r="C11" t="n">
-        <v>1371.97272684967</v>
+        <v>1350.723391701037</v>
       </c>
       <c r="D11" t="n">
-        <v>1371.97272684967</v>
+        <v>1350.723391701037</v>
       </c>
       <c r="E11" t="n">
-        <v>1371.97272684967</v>
+        <v>1350.723391701037</v>
       </c>
       <c r="F11" t="n">
-        <v>960.9868220600621</v>
+        <v>939.7374869114291</v>
       </c>
       <c r="G11" t="n">
-        <v>542.7101166409632</v>
+        <v>521.7736788096159</v>
       </c>
       <c r="H11" t="n">
-        <v>212.3109370263135</v>
+        <v>194.5789588456188</v>
       </c>
       <c r="I11" t="n">
-        <v>46.78198719674505</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="J11" t="n">
-        <v>136.5215544435064</v>
+        <v>156.8808390736582</v>
       </c>
       <c r="K11" t="n">
-        <v>391.7627074110816</v>
+        <v>156.8808390736582</v>
       </c>
       <c r="L11" t="n">
-        <v>760.6885551762202</v>
+        <v>574.201617122753</v>
       </c>
       <c r="M11" t="n">
-        <v>1187.796190688579</v>
+        <v>1055.157937280788</v>
       </c>
       <c r="N11" t="n">
-        <v>1607.182876724999</v>
+        <v>1529.26463597752</v>
       </c>
       <c r="O11" t="n">
-        <v>1958.010194112258</v>
+        <v>1931.762509643035</v>
       </c>
       <c r="P11" t="n">
-        <v>2219.758809917898</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="Q11" t="n">
-        <v>2339.099359837252</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="R11" t="n">
-        <v>2339.099359837252</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="S11" t="n">
-        <v>2339.099359837252</v>
+        <v>1879.471654349592</v>
       </c>
       <c r="T11" t="n">
-        <v>2119.094984802897</v>
+        <v>1660.836987321655</v>
       </c>
       <c r="U11" t="n">
-        <v>1865.308167655606</v>
+        <v>1660.836987321655</v>
       </c>
       <c r="V11" t="n">
-        <v>1534.245280312035</v>
+        <v>1660.836987321655</v>
       </c>
       <c r="W11" t="n">
-        <v>1534.245280312035</v>
+        <v>1660.836987321655</v>
       </c>
       <c r="X11" t="n">
-        <v>1534.245280312035</v>
+        <v>1660.836987321655</v>
       </c>
       <c r="Y11" t="n">
-        <v>1534.245280312035</v>
+        <v>1350.723391701037</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>838.1487736221807</v>
+        <v>555.3843691785419</v>
       </c>
       <c r="C12" t="n">
-        <v>746.6255944375271</v>
+        <v>380.9313398974149</v>
       </c>
       <c r="D12" t="n">
-        <v>597.6911847762758</v>
+        <v>231.9969302361636</v>
       </c>
       <c r="E12" t="n">
-        <v>438.4537297708202</v>
+        <v>103.1556292876864</v>
       </c>
       <c r="F12" t="n">
-        <v>291.9191717977052</v>
+        <v>103.1556292876864</v>
       </c>
       <c r="G12" t="n">
-        <v>153.8416439199161</v>
+        <v>103.1556292876864</v>
       </c>
       <c r="H12" t="n">
-        <v>46.78198719674505</v>
+        <v>103.1556292876864</v>
       </c>
       <c r="I12" t="n">
-        <v>46.78198719674505</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="J12" t="n">
-        <v>46.78198719674505</v>
+        <v>116.3701452408383</v>
       </c>
       <c r="K12" t="n">
-        <v>275.533458002509</v>
+        <v>371.6174656819368</v>
       </c>
       <c r="L12" t="n">
-        <v>644.5224364725395</v>
+        <v>776.2333837776087</v>
       </c>
       <c r="M12" t="n">
-        <v>1127.094391901628</v>
+        <v>1028.017836035219</v>
       </c>
       <c r="N12" t="n">
-        <v>1638.145604440713</v>
+        <v>1107.195421534653</v>
       </c>
       <c r="O12" t="n">
-        <v>2039.241943704423</v>
+        <v>1547.331344554997</v>
       </c>
       <c r="P12" t="n">
-        <v>2339.099359837252</v>
+        <v>1883.576158169825</v>
       </c>
       <c r="Q12" t="n">
-        <v>2339.099359837252</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="R12" t="n">
-        <v>2339.099359837252</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="S12" t="n">
-        <v>2339.099359837252</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="T12" t="n">
-        <v>2139.546012735002</v>
+        <v>1856.770594158201</v>
       </c>
       <c r="U12" t="n">
-        <v>1911.36537457268</v>
+        <v>1628.600970129041</v>
       </c>
       <c r="V12" t="n">
-        <v>1676.213266340937</v>
+        <v>1393.448861897298</v>
       </c>
       <c r="W12" t="n">
-        <v>1421.975909612735</v>
+        <v>1139.211505169097</v>
       </c>
       <c r="X12" t="n">
-        <v>1214.124409407203</v>
+        <v>931.3600049635638</v>
       </c>
       <c r="Y12" t="n">
-        <v>1006.364110642249</v>
+        <v>723.59970619861</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.6950807791382</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="C13" t="n">
-        <v>194.6950807791382</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="D13" t="n">
-        <v>194.6950807791382</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="E13" t="n">
-        <v>46.78198719674505</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="F13" t="n">
-        <v>46.78198719674505</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="G13" t="n">
-        <v>46.78198719674505</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="H13" t="n">
-        <v>46.78198719674505</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="I13" t="n">
-        <v>46.78198719674505</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="J13" t="n">
-        <v>46.78198719674505</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="K13" t="n">
-        <v>87.10198850822647</v>
+        <v>97.4151759069766</v>
       </c>
       <c r="L13" t="n">
-        <v>194.2241430992924</v>
+        <v>224.989033468135</v>
       </c>
       <c r="M13" t="n">
-        <v>317.5585585757114</v>
+        <v>369.8869021861649</v>
       </c>
       <c r="N13" t="n">
-        <v>443.3949737399273</v>
+        <v>516.774039870594</v>
       </c>
       <c r="O13" t="n">
-        <v>543.6089748435787</v>
+        <v>636.4317903798342</v>
       </c>
       <c r="P13" t="n">
-        <v>605.8386830625352</v>
+        <v>715.2989852267783</v>
       </c>
       <c r="Q13" t="n">
-        <v>605.8386830625352</v>
+        <v>715.2989852267783</v>
       </c>
       <c r="R13" t="n">
-        <v>605.8386830625352</v>
+        <v>678.0591859003638</v>
       </c>
       <c r="S13" t="n">
-        <v>605.8386830625352</v>
+        <v>678.0591859003638</v>
       </c>
       <c r="T13" t="n">
-        <v>605.8386830625352</v>
+        <v>450.7509985689655</v>
       </c>
       <c r="U13" t="n">
-        <v>605.8386830625352</v>
+        <v>450.7509985689655</v>
       </c>
       <c r="V13" t="n">
-        <v>605.8386830625352</v>
+        <v>450.7509985689655</v>
       </c>
       <c r="W13" t="n">
-        <v>422.6846316771555</v>
+        <v>450.7509985689655</v>
       </c>
       <c r="X13" t="n">
-        <v>194.6950807791382</v>
+        <v>222.7614476709481</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.6950807791382</v>
+        <v>222.7614476709481</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1041.57354723502</v>
+        <v>1337.98641462773</v>
       </c>
       <c r="C14" t="n">
-        <v>1041.57354723502</v>
+        <v>1337.98641462773</v>
       </c>
       <c r="D14" t="n">
-        <v>1041.57354723502</v>
+        <v>979.7207160209794</v>
       </c>
       <c r="E14" t="n">
-        <v>1041.57354723502</v>
+        <v>979.7207160209794</v>
       </c>
       <c r="F14" t="n">
-        <v>630.5876424454125</v>
+        <v>612.5427669474319</v>
       </c>
       <c r="G14" t="n">
-        <v>212.3109370263135</v>
+        <v>194.5789588456188</v>
       </c>
       <c r="H14" t="n">
-        <v>212.3109370263135</v>
+        <v>194.5789588456188</v>
       </c>
       <c r="I14" t="n">
-        <v>46.78198719674505</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="J14" t="n">
-        <v>136.5215544435064</v>
+        <v>156.8808390736582</v>
       </c>
       <c r="K14" t="n">
-        <v>391.7627074110816</v>
+        <v>451.1316500936566</v>
       </c>
       <c r="L14" t="n">
-        <v>760.6885551762202</v>
+        <v>837.2584075244816</v>
       </c>
       <c r="M14" t="n">
-        <v>1187.796190688579</v>
+        <v>873.196329524613</v>
       </c>
       <c r="N14" t="n">
-        <v>1607.182876724999</v>
+        <v>1347.303028221344</v>
       </c>
       <c r="O14" t="n">
-        <v>1958.010194112258</v>
+        <v>1749.800901886859</v>
       </c>
       <c r="P14" t="n">
-        <v>2219.758809917898</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="Q14" t="n">
-        <v>2339.099359837252</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="R14" t="n">
-        <v>2264.415634260796</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="S14" t="n">
-        <v>2264.415634260796</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="T14" t="n">
-        <v>2044.41125922644</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="U14" t="n">
-        <v>2044.41125922644</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="V14" t="n">
-        <v>1713.34837188287</v>
+        <v>1724.586254691852</v>
       </c>
       <c r="W14" t="n">
-        <v>1431.712879210832</v>
+        <v>1724.586254691852</v>
       </c>
       <c r="X14" t="n">
-        <v>1431.712879210832</v>
+        <v>1724.586254691852</v>
       </c>
       <c r="Y14" t="n">
-        <v>1041.57354723502</v>
+        <v>1724.586254691852</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>881.8256764636627</v>
+        <v>800.1139308397055</v>
       </c>
       <c r="C15" t="n">
-        <v>707.3726471825357</v>
+        <v>625.6609015585785</v>
       </c>
       <c r="D15" t="n">
-        <v>558.4382375212845</v>
+        <v>476.7264918973273</v>
       </c>
       <c r="E15" t="n">
-        <v>399.2007825158289</v>
+        <v>317.4890368918718</v>
       </c>
       <c r="F15" t="n">
-        <v>252.6662245427138</v>
+        <v>170.9544789187567</v>
       </c>
       <c r="G15" t="n">
-        <v>114.5886966649247</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5886966649247</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="I15" t="n">
-        <v>46.78198719674505</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="J15" t="n">
-        <v>46.78198719674505</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="K15" t="n">
-        <v>275.533458002509</v>
+        <v>172.3843029505814</v>
       </c>
       <c r="L15" t="n">
-        <v>644.5224364725395</v>
+        <v>577.0002210462533</v>
       </c>
       <c r="M15" t="n">
-        <v>1127.094391901628</v>
+        <v>1085.77338370002</v>
       </c>
       <c r="N15" t="n">
-        <v>1638.145604440713</v>
+        <v>1594.546546353787</v>
       </c>
       <c r="O15" t="n">
-        <v>2039.241943704423</v>
+        <v>2034.682469374131</v>
       </c>
       <c r="P15" t="n">
-        <v>2339.099359837252</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="Q15" t="n">
-        <v>2339.099359837252</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="R15" t="n">
-        <v>2339.099359837252</v>
+        <v>2005.435771447247</v>
       </c>
       <c r="S15" t="n">
-        <v>2177.816730551896</v>
+        <v>1847.262799091163</v>
       </c>
       <c r="T15" t="n">
-        <v>1978.263383449645</v>
+        <v>1847.262799091163</v>
       </c>
       <c r="U15" t="n">
-        <v>1750.082745287323</v>
+        <v>1619.093175062003</v>
       </c>
       <c r="V15" t="n">
-        <v>1514.930637055581</v>
+        <v>1383.94106683026</v>
       </c>
       <c r="W15" t="n">
-        <v>1465.652812454217</v>
+        <v>1383.94106683026</v>
       </c>
       <c r="X15" t="n">
-        <v>1257.801312248685</v>
+        <v>1176.089566624727</v>
       </c>
       <c r="Y15" t="n">
-        <v>1050.041013483731</v>
+        <v>968.3292678597736</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.78198719674505</v>
+        <v>197.8922642918004</v>
       </c>
       <c r="C16" t="n">
-        <v>46.78198719674505</v>
+        <v>197.8922642918004</v>
       </c>
       <c r="D16" t="n">
-        <v>46.78198719674505</v>
+        <v>47.77562487946463</v>
       </c>
       <c r="E16" t="n">
-        <v>46.78198719674505</v>
+        <v>47.77562487946463</v>
       </c>
       <c r="F16" t="n">
-        <v>46.78198719674505</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="G16" t="n">
-        <v>46.78198719674505</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="H16" t="n">
-        <v>46.78198719674505</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="I16" t="n">
-        <v>46.78198719674505</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="J16" t="n">
-        <v>46.78198719674505</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="K16" t="n">
-        <v>87.10198850822647</v>
+        <v>97.4151759069766</v>
       </c>
       <c r="L16" t="n">
-        <v>194.2241430992924</v>
+        <v>224.989033468135</v>
       </c>
       <c r="M16" t="n">
-        <v>317.5585585757114</v>
+        <v>369.8869021861649</v>
       </c>
       <c r="N16" t="n">
-        <v>443.3949737399273</v>
+        <v>516.774039870594</v>
       </c>
       <c r="O16" t="n">
-        <v>543.6089748435787</v>
+        <v>636.4317903798342</v>
       </c>
       <c r="P16" t="n">
-        <v>605.8386830625352</v>
+        <v>715.2989852267783</v>
       </c>
       <c r="Q16" t="n">
-        <v>605.8386830625352</v>
+        <v>715.2989852267783</v>
       </c>
       <c r="R16" t="n">
-        <v>605.8386830625352</v>
+        <v>715.2989852267783</v>
       </c>
       <c r="S16" t="n">
-        <v>605.8386830625352</v>
+        <v>715.2989852267783</v>
       </c>
       <c r="T16" t="n">
-        <v>605.8386830625352</v>
+        <v>715.2989852267783</v>
       </c>
       <c r="U16" t="n">
-        <v>316.6574169917581</v>
+        <v>715.2989852267783</v>
       </c>
       <c r="V16" t="n">
-        <v>61.97292878587118</v>
+        <v>715.2989852267783</v>
       </c>
       <c r="W16" t="n">
-        <v>46.78198719674505</v>
+        <v>425.8818151898177</v>
       </c>
       <c r="X16" t="n">
-        <v>46.78198719674505</v>
+        <v>197.8922642918004</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.78198719674505</v>
+        <v>197.8922642918004</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1108.365917331524</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C17" t="n">
-        <v>739.4034003911122</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D17" t="n">
-        <v>381.1377017843616</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E17" t="n">
-        <v>381.1377017843616</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F17" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5518,16 +5518,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5542,25 +5542,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2568.936631985142</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2568.936631985142</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2568.936631985142</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V17" t="n">
-        <v>2237.873744641572</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W17" t="n">
-        <v>1885.105089371457</v>
+        <v>1578.756942221256</v>
       </c>
       <c r="X17" t="n">
-        <v>1885.105089371457</v>
+        <v>1578.756942221256</v>
       </c>
       <c r="Y17" t="n">
-        <v>1494.965757395646</v>
+        <v>1578.756942221256</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5594,16 +5594,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5618,19 +5618,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>210.7222632714563</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C19" t="n">
-        <v>210.7222632714563</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D19" t="n">
-        <v>210.7222632714563</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E19" t="n">
-        <v>210.7222632714563</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5697,28 +5697,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064342</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W19" t="n">
-        <v>438.7118141694736</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X19" t="n">
-        <v>210.7222632714563</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y19" t="n">
-        <v>210.7222632714563</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1624.753525949915</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C20" t="n">
-        <v>1255.791009009503</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D20" t="n">
-        <v>897.5253104027529</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E20" t="n">
-        <v>511.7370578045087</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F20" t="n">
-        <v>100.7511530149011</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>100.7511530149011</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H20" t="n">
-        <v>100.7511530149011</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036444</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V20" t="n">
-        <v>2388.358616186807</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W20" t="n">
-        <v>2388.358616186807</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X20" t="n">
-        <v>2014.892857925727</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y20" t="n">
-        <v>1624.753525949915</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
         <v>505.8730812692495</v>
@@ -5831,25 +5831,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C22" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D22" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E22" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F22" t="n">
         <v>53.94298182036444</v>
@@ -5937,25 +5937,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T22" t="n">
-        <v>500.820796875036</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U22" t="n">
-        <v>211.6471865296039</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V22" t="n">
-        <v>211.6471865296039</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X22" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y22" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1937.315630222944</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="C23" t="n">
-        <v>1568.353113282533</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D23" t="n">
-        <v>1210.087414675782</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E23" t="n">
-        <v>1210.087414675782</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F23" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T23" t="n">
         <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V23" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W23" t="n">
-        <v>2247.308246834948</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X23" t="n">
-        <v>2247.308246834948</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="Y23" t="n">
-        <v>1937.315630222944</v>
+        <v>850.7171392082162</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6080,13 +6080,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6107,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C25" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D25" t="n">
-        <v>61.53054711726818</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6177,22 +6177,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>211.6471865296039</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V25" t="n">
-        <v>211.6471865296039</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X25" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y25" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>919.5755868835433</v>
+        <v>1317.927233509</v>
       </c>
       <c r="C26" t="n">
-        <v>919.5755868835433</v>
+        <v>948.9647165685888</v>
       </c>
       <c r="D26" t="n">
-        <v>561.3098882767929</v>
+        <v>948.9647165685888</v>
       </c>
       <c r="E26" t="n">
-        <v>464.928886609972</v>
+        <v>563.1764639703445</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036444</v>
+        <v>152.1905591807369</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036444</v>
+        <v>152.1905591807369</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036444</v>
+        <v>152.1905591807369</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.483574129469</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859355</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X26" t="n">
-        <v>1309.714918859355</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y26" t="n">
-        <v>919.5755868835433</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6344,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6417,19 +6417,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610022</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V28" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>210.9658229629848</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>210.9658229629848</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>991.2778500677821</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="C29" t="n">
-        <v>991.2778500677821</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="D29" t="n">
-        <v>633.0121514610316</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E29" t="n">
-        <v>633.0121514610316</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>633.0121514610316</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U29" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V29" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W29" t="n">
-        <v>1364.743608328862</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X29" t="n">
-        <v>991.2778500677821</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y29" t="n">
-        <v>991.2778500677821</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="30">
@@ -6524,49 +6524,49 @@
         <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
         <v>2488.762748073963</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F31" t="n">
         <v>53.94298182036445</v>
@@ -6651,22 +6651,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="W31" t="n">
-        <v>438.7118141694736</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="X31" t="n">
-        <v>210.7222632714563</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>551.4175770764215</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1184.889762484419</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="C32" t="n">
-        <v>1184.889762484419</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D32" t="n">
-        <v>1184.889762484419</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E32" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6703,10 +6703,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6727,25 +6727,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>2292.691821867923</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V32" t="n">
-        <v>1961.628934524352</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W32" t="n">
-        <v>1961.628934524352</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X32" t="n">
-        <v>1961.628934524352</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y32" t="n">
-        <v>1571.489602548541</v>
+        <v>722.2873163082934</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6782,40 +6782,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
         <v>53.94298182036445</v>
@@ -6888,22 +6888,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>500.820796875036</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W34" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>919.5755868835433</v>
+        <v>833.8914035503838</v>
       </c>
       <c r="C35" t="n">
-        <v>919.5755868835433</v>
+        <v>464.928886609972</v>
       </c>
       <c r="D35" t="n">
-        <v>919.5755868835433</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117851</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036444</v>
@@ -6964,25 +6964,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.483574129469</v>
+        <v>1950.265149057389</v>
       </c>
       <c r="W35" t="n">
-        <v>1309.714918859355</v>
+        <v>1597.496493787275</v>
       </c>
       <c r="X35" t="n">
-        <v>1309.714918859355</v>
+        <v>1224.030735526195</v>
       </c>
       <c r="Y35" t="n">
-        <v>919.5755868835433</v>
+        <v>833.8914035503838</v>
       </c>
     </row>
     <row r="36">
@@ -7016,13 +7016,13 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641985</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
         <v>1194.968834417901</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>200.8329293182748</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C37" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D37" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F37" t="n">
         <v>53.94298182036444</v>
@@ -7125,22 +7125,22 @@
         <v>513.8405610245969</v>
       </c>
       <c r="T37" t="n">
-        <v>455.5174175241617</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U37" t="n">
-        <v>455.5174175241617</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V37" t="n">
-        <v>200.8329293182748</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W37" t="n">
-        <v>200.8329293182748</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X37" t="n">
-        <v>200.8329293182748</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y37" t="n">
-        <v>200.8329293182748</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1865.381229508782</v>
+        <v>2033.346402544966</v>
       </c>
       <c r="C38" t="n">
-        <v>1865.381229508782</v>
+        <v>1664.383885604555</v>
       </c>
       <c r="D38" t="n">
-        <v>1507.115530902031</v>
+        <v>1306.118186997804</v>
       </c>
       <c r="E38" t="n">
-        <v>1121.327278303787</v>
+        <v>920.3299343995598</v>
       </c>
       <c r="F38" t="n">
-        <v>710.3413735141794</v>
+        <v>509.3440296099522</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>509.3440296099522</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036444</v>
@@ -7204,22 +7204,22 @@
         <v>2642.120401548715</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X38" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y38" t="n">
-        <v>2251.981069572903</v>
+        <v>2033.346402544966</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C40" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="D40" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="E40" t="n">
-        <v>380.6911546495019</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F40" t="n">
-        <v>380.6911546495019</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G40" t="n">
         <v>211.6913543878343</v>
@@ -7356,28 +7356,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>579.9823256406182</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U40" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V40" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W40" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X40" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y40" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1773.251627298071</v>
+        <v>1119.406056024391</v>
       </c>
       <c r="C41" t="n">
-        <v>1773.251627298071</v>
+        <v>1119.406056024391</v>
       </c>
       <c r="D41" t="n">
-        <v>1414.98592869132</v>
+        <v>1119.406056024391</v>
       </c>
       <c r="E41" t="n">
-        <v>1029.197676093076</v>
+        <v>1119.406056024391</v>
       </c>
       <c r="F41" t="n">
-        <v>618.2117713034686</v>
+        <v>708.4201512347834</v>
       </c>
       <c r="G41" t="n">
-        <v>200.2479632016554</v>
+        <v>368.3077028047056</v>
       </c>
       <c r="H41" t="n">
-        <v>200.2479632016554</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="I41" t="n">
-        <v>46.78198719674504</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="J41" t="n">
-        <v>46.78198719674504</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="K41" t="n">
-        <v>341.0327982167435</v>
+        <v>335.3637938607069</v>
       </c>
       <c r="L41" t="n">
-        <v>758.3535762658383</v>
+        <v>339.1999695048559</v>
       </c>
       <c r="M41" t="n">
-        <v>1239.309896423874</v>
+        <v>820.1562896628914</v>
       </c>
       <c r="N41" t="n">
-        <v>1713.416595120605</v>
+        <v>1294.262988359623</v>
       </c>
       <c r="O41" t="n">
-        <v>2115.91446878612</v>
+        <v>1696.760862025138</v>
       </c>
       <c r="P41" t="n">
-        <v>2339.099359837252</v>
+        <v>1903.191610808452</v>
       </c>
       <c r="Q41" t="n">
-        <v>2339.099359837252</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="R41" t="n">
-        <v>2339.099359837252</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="S41" t="n">
-        <v>2339.099359837252</v>
+        <v>1879.471654349592</v>
       </c>
       <c r="T41" t="n">
-        <v>2339.099359837252</v>
+        <v>1879.471654349592</v>
       </c>
       <c r="U41" t="n">
-        <v>2339.099359837252</v>
+        <v>1879.471654349592</v>
       </c>
       <c r="V41" t="n">
-        <v>2339.099359837252</v>
+        <v>1879.471654349592</v>
       </c>
       <c r="W41" t="n">
-        <v>2339.099359837252</v>
+        <v>1879.471654349592</v>
       </c>
       <c r="X41" t="n">
-        <v>1965.633601576172</v>
+        <v>1506.005896088513</v>
       </c>
       <c r="Y41" t="n">
-        <v>1773.251627298071</v>
+        <v>1506.005896088513</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>919.2943341464858</v>
+        <v>870.2251942623691</v>
       </c>
       <c r="C42" t="n">
-        <v>744.8413048653588</v>
+        <v>695.7721649812421</v>
       </c>
       <c r="D42" t="n">
-        <v>595.9068952041075</v>
+        <v>546.8377553199908</v>
       </c>
       <c r="E42" t="n">
-        <v>436.6694401986521</v>
+        <v>387.6003003145353</v>
       </c>
       <c r="F42" t="n">
-        <v>290.1348822255371</v>
+        <v>241.0657423414203</v>
       </c>
       <c r="G42" t="n">
-        <v>152.2247691718032</v>
+        <v>103.1556292876864</v>
       </c>
       <c r="H42" t="n">
-        <v>46.78198719674504</v>
+        <v>103.1556292876864</v>
       </c>
       <c r="I42" t="n">
-        <v>46.78198719674504</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="J42" t="n">
-        <v>113.9569642546301</v>
+        <v>116.3701452408383</v>
       </c>
       <c r="K42" t="n">
-        <v>369.2042846957286</v>
+        <v>371.6174656819368</v>
       </c>
       <c r="L42" t="n">
-        <v>773.8202027914004</v>
+        <v>776.2333837776087</v>
       </c>
       <c r="M42" t="n">
-        <v>836.9191032369314</v>
+        <v>1285.006546431376</v>
       </c>
       <c r="N42" t="n">
-        <v>1390.645639336483</v>
+        <v>1364.184131930809</v>
       </c>
       <c r="O42" t="n">
-        <v>1830.781562356826</v>
+        <v>1719.404328420593</v>
       </c>
       <c r="P42" t="n">
-        <v>2167.026375971655</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="Q42" t="n">
-        <v>2339.099359837252</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="R42" t="n">
-        <v>2288.885989249077</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="S42" t="n">
-        <v>2130.713016892993</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="T42" t="n">
-        <v>2130.713016892993</v>
+        <v>1856.770594158201</v>
       </c>
       <c r="U42" t="n">
-        <v>1992.510935096985</v>
+        <v>1628.600970129041</v>
       </c>
       <c r="V42" t="n">
-        <v>1757.358826865242</v>
+        <v>1393.448861897298</v>
       </c>
       <c r="W42" t="n">
-        <v>1503.12147013704</v>
+        <v>1139.211505169097</v>
       </c>
       <c r="X42" t="n">
-        <v>1295.269969931508</v>
+        <v>931.3600049635638</v>
       </c>
       <c r="Y42" t="n">
-        <v>1087.509671166554</v>
+        <v>931.3600049635638</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>351.4203072621252</v>
+        <v>495.8679423184244</v>
       </c>
       <c r="C43" t="n">
-        <v>351.4203072621252</v>
+        <v>495.8679423184244</v>
       </c>
       <c r="D43" t="n">
-        <v>351.4203072621252</v>
+        <v>345.7513029060887</v>
       </c>
       <c r="E43" t="n">
-        <v>351.4203072621252</v>
+        <v>345.7513029060887</v>
       </c>
       <c r="F43" t="n">
-        <v>204.5303597642149</v>
+        <v>198.8613554081783</v>
       </c>
       <c r="G43" t="n">
-        <v>204.5303597642149</v>
+        <v>198.8613554081783</v>
       </c>
       <c r="H43" t="n">
-        <v>46.78198719674504</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="I43" t="n">
-        <v>46.78198719674504</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="J43" t="n">
-        <v>46.78198719674504</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="K43" t="n">
-        <v>103.0841802630132</v>
+        <v>97.41517590697657</v>
       </c>
       <c r="L43" t="n">
-        <v>230.6580378241716</v>
+        <v>224.989033468135</v>
       </c>
       <c r="M43" t="n">
-        <v>375.5559065422015</v>
+        <v>369.8869021861649</v>
       </c>
       <c r="N43" t="n">
-        <v>522.4430442266305</v>
+        <v>516.7740398705939</v>
       </c>
       <c r="O43" t="n">
-        <v>642.1007947358706</v>
+        <v>636.4317903798341</v>
       </c>
       <c r="P43" t="n">
-        <v>720.9679895828148</v>
+        <v>715.2989852267782</v>
       </c>
       <c r="Q43" t="n">
-        <v>720.9679895828148</v>
+        <v>715.2989852267782</v>
       </c>
       <c r="R43" t="n">
-        <v>720.9679895828148</v>
+        <v>715.2989852267782</v>
       </c>
       <c r="S43" t="n">
-        <v>720.9679895828148</v>
+        <v>715.2989852267782</v>
       </c>
       <c r="T43" t="n">
-        <v>640.5939176075573</v>
+        <v>715.2989852267782</v>
       </c>
       <c r="U43" t="n">
-        <v>351.4203072621252</v>
+        <v>495.8679423184244</v>
       </c>
       <c r="V43" t="n">
-        <v>351.4203072621252</v>
+        <v>495.8679423184244</v>
       </c>
       <c r="W43" t="n">
-        <v>351.4203072621252</v>
+        <v>495.8679423184244</v>
       </c>
       <c r="X43" t="n">
-        <v>351.4203072621252</v>
+        <v>495.8679423184244</v>
       </c>
       <c r="Y43" t="n">
-        <v>351.4203072621252</v>
+        <v>495.8679423184244</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1387.463374699827</v>
+        <v>1223.881280525982</v>
       </c>
       <c r="C44" t="n">
-        <v>1387.463374699827</v>
+        <v>1223.881280525982</v>
       </c>
       <c r="D44" t="n">
-        <v>1029.197676093076</v>
+        <v>1223.881280525982</v>
       </c>
       <c r="E44" t="n">
-        <v>1029.197676093076</v>
+        <v>838.0930279277377</v>
       </c>
       <c r="F44" t="n">
-        <v>618.2117713034686</v>
+        <v>427.1071231381301</v>
       </c>
       <c r="G44" t="n">
-        <v>200.2479632016554</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="H44" t="n">
-        <v>200.2479632016554</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="I44" t="n">
-        <v>46.78198719674504</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="J44" t="n">
-        <v>162.5498434296948</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="K44" t="n">
-        <v>456.8006544496932</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="L44" t="n">
-        <v>874.1214324987881</v>
+        <v>458.4337608898033</v>
       </c>
       <c r="M44" t="n">
-        <v>1355.077752656824</v>
+        <v>939.3900810478387</v>
       </c>
       <c r="N44" t="n">
-        <v>1829.184451353555</v>
+        <v>1347.303028221344</v>
       </c>
       <c r="O44" t="n">
-        <v>2033.251119688689</v>
+        <v>1749.800901886859</v>
       </c>
       <c r="P44" t="n">
-        <v>2339.099359837252</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="Q44" t="n">
-        <v>2339.099359837252</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="R44" t="n">
-        <v>2284.070670367745</v>
+        <v>2000.620452565915</v>
       </c>
       <c r="S44" t="n">
-        <v>2147.528973025028</v>
+        <v>2000.620452565915</v>
       </c>
       <c r="T44" t="n">
-        <v>2147.528973025028</v>
+        <v>2000.620452565915</v>
       </c>
       <c r="U44" t="n">
-        <v>2147.528973025028</v>
+        <v>2000.620452565915</v>
       </c>
       <c r="V44" t="n">
-        <v>2147.528973025028</v>
+        <v>2000.620452565915</v>
       </c>
       <c r="W44" t="n">
-        <v>2147.528973025028</v>
+        <v>2000.620452565915</v>
       </c>
       <c r="X44" t="n">
-        <v>1774.063214763948</v>
+        <v>2000.620452565915</v>
       </c>
       <c r="Y44" t="n">
-        <v>1774.063214763948</v>
+        <v>1610.481120590104</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>822.0995255880083</v>
+        <v>555.3843691785419</v>
       </c>
       <c r="C45" t="n">
-        <v>647.6464963068813</v>
+        <v>380.9313398974149</v>
       </c>
       <c r="D45" t="n">
-        <v>498.7120866456301</v>
+        <v>380.9313398974149</v>
       </c>
       <c r="E45" t="n">
-        <v>498.7120866456301</v>
+        <v>221.6938848919594</v>
       </c>
       <c r="F45" t="n">
-        <v>352.1775286725151</v>
+        <v>179.0230958944423</v>
       </c>
       <c r="G45" t="n">
-        <v>214.2674156187812</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="H45" t="n">
-        <v>108.824633643723</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="I45" t="n">
-        <v>46.78198719674504</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="J45" t="n">
-        <v>122.0391495968749</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="K45" t="n">
-        <v>377.2864700379733</v>
+        <v>296.360303281807</v>
       </c>
       <c r="L45" t="n">
-        <v>781.9023881336452</v>
+        <v>700.9762213774789</v>
       </c>
       <c r="M45" t="n">
-        <v>1306.049301691676</v>
+        <v>770.4952427464825</v>
       </c>
       <c r="N45" t="n">
-        <v>1390.645639336483</v>
+        <v>1279.26840540025</v>
       </c>
       <c r="O45" t="n">
-        <v>1830.781562356826</v>
+        <v>1719.404328420593</v>
       </c>
       <c r="P45" t="n">
-        <v>2167.026375971655</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="Q45" t="n">
-        <v>2339.099359837252</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="R45" t="n">
-        <v>2288.885989249077</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="S45" t="n">
-        <v>2154.148961424821</v>
+        <v>2055.649142035422</v>
       </c>
       <c r="T45" t="n">
-        <v>1955.2704135476</v>
+        <v>1856.770594158201</v>
       </c>
       <c r="U45" t="n">
-        <v>1727.100789518439</v>
+        <v>1628.600970129041</v>
       </c>
       <c r="V45" t="n">
-        <v>1491.948681286697</v>
+        <v>1393.448861897298</v>
       </c>
       <c r="W45" t="n">
-        <v>1237.711324558495</v>
+        <v>1139.211505169097</v>
       </c>
       <c r="X45" t="n">
-        <v>1029.859824352962</v>
+        <v>931.3600049635638</v>
       </c>
       <c r="Y45" t="n">
-        <v>822.0995255880083</v>
+        <v>723.59970619861</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>194.6950807791382</v>
+        <v>273.7023747135427</v>
       </c>
       <c r="C46" t="n">
-        <v>194.6950807791382</v>
+        <v>273.7023747135427</v>
       </c>
       <c r="D46" t="n">
-        <v>194.6950807791382</v>
+        <v>273.7023747135427</v>
       </c>
       <c r="E46" t="n">
-        <v>46.78198719674504</v>
+        <v>273.7023747135427</v>
       </c>
       <c r="F46" t="n">
-        <v>46.78198719674504</v>
+        <v>273.7023747135427</v>
       </c>
       <c r="G46" t="n">
-        <v>46.78198719674504</v>
+        <v>198.8613554081783</v>
       </c>
       <c r="H46" t="n">
-        <v>46.78198719674504</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="I46" t="n">
-        <v>46.78198719674504</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="J46" t="n">
-        <v>46.78198719674504</v>
+        <v>41.11298284070845</v>
       </c>
       <c r="K46" t="n">
-        <v>103.0841802630132</v>
+        <v>97.41517590697657</v>
       </c>
       <c r="L46" t="n">
-        <v>230.6580378241716</v>
+        <v>224.989033468135</v>
       </c>
       <c r="M46" t="n">
-        <v>375.5559065422015</v>
+        <v>369.8869021861649</v>
       </c>
       <c r="N46" t="n">
-        <v>522.4430442266305</v>
+        <v>516.7740398705939</v>
       </c>
       <c r="O46" t="n">
-        <v>642.1007947358706</v>
+        <v>636.4317903798341</v>
       </c>
       <c r="P46" t="n">
-        <v>720.9679895828148</v>
+        <v>715.2989852267782</v>
       </c>
       <c r="Q46" t="n">
-        <v>720.9679895828148</v>
+        <v>715.2989852267782</v>
       </c>
       <c r="R46" t="n">
-        <v>720.9679895828148</v>
+        <v>715.2989852267782</v>
       </c>
       <c r="S46" t="n">
-        <v>720.9679895828148</v>
+        <v>501.0105620449409</v>
       </c>
       <c r="T46" t="n">
-        <v>720.9679895828148</v>
+        <v>273.7023747135427</v>
       </c>
       <c r="U46" t="n">
-        <v>449.379568985025</v>
+        <v>273.7023747135427</v>
       </c>
       <c r="V46" t="n">
-        <v>194.6950807791382</v>
+        <v>273.7023747135427</v>
       </c>
       <c r="W46" t="n">
-        <v>194.6950807791382</v>
+        <v>273.7023747135427</v>
       </c>
       <c r="X46" t="n">
-        <v>194.6950807791382</v>
+        <v>273.7023747135427</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.6950807791382</v>
+        <v>273.7023747135427</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M2" t="n">
-        <v>254.9313611413124</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N2" t="n">
-        <v>255.0333547912217</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O2" t="n">
-        <v>255.7185026163176</v>
+        <v>256.5734881866366</v>
       </c>
       <c r="P2" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>164.174670974505</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M3" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P3" t="n">
-        <v>158.5595353283699</v>
+        <v>160.4496841792801</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8142,13 +8142,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>160.5049674758691</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>164.5460751422359</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N4" t="n">
-        <v>153.305835659864</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L5" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>254.9313611413124</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>255.0333547912217</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7185026163176</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P5" t="n">
-        <v>256.8532869499004</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8303,19 +8303,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>166.719161836058</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>156.9620032779641</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O6" t="n">
-        <v>168.2165356390753</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P6" t="n">
-        <v>159.5946986089611</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,13 +8379,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>160.5049674758691</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>164.5460751422359</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N7" t="n">
-        <v>153.305835659864</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>246.5651278099304</v>
+        <v>258.0743794427063</v>
       </c>
       <c r="L8" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>157.8169888482831</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O9" t="n">
-        <v>170.1862697047606</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q9" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8619,10 +8619,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>26.92237113682282</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8707,10 +8707,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>137.9991043773661</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>58.31748437003577</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>65.73255878325077</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,19 +8777,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>190.5914664768484</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>313.3570214411499</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.42284480330777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8932,10 +8932,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>386.1521028148243</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8947,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>58.31748437003577</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>65.73255878325077</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2369538497245</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>450.1760224325616</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>433.9349264185188</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>313.3570214411499</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.42284480330777</v>
+        <v>36.266192922115</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9181,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9251,10 +9251,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.9065542451756</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>251.4045252050811</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10129,7 +10129,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10430,7 +10430,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>145.0294169142005</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093287</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11077,10 +11077,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>238.3003757498354</v>
+        <v>221.3769997217368</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.3174843700358</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>117.9272117623838</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,19 +11147,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>450.1760224325617</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>308.0888581347504</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>36.26619292211501</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>52.15938665394273</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>26.92237113682285</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11308,10 +11308,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>370.4845491359986</v>
       </c>
       <c r="O44" t="n">
-        <v>180.3646203229668</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11384,10 +11384,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>6.484970629770459</v>
       </c>
       <c r="N45" t="n">
-        <v>5.473487015528434</v>
+        <v>433.9349264185189</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>36.26619292211501</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>204.6230638432659</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.93688832069192</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>181.4745589504436</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>79.22547899164124</v>
       </c>
     </row>
     <row r="12">
@@ -23339,25 +23339,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>82.10055159550868</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>30.0921925164085</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>67.12864237349785</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>60.0016974385799</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6698029925029</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4487536740638</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>157.4062932407282</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>139.1442698001815</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>55.02382422995085</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.75803617022393</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>152.9129528770118</v>
+        <v>109.7977906470075</v>
       </c>
       <c r="S13" t="n">
-        <v>214.5670831552896</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.6288069585941</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2894534100694</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>105.2004874650651</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>43.3698761588995</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0951878185031</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>181.4745589504436</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2489489758183</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>70.42183097209539</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>7.987930805928727</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9890601559393</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>60.0016974385799</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>202.9099368055701</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23658,25 +23658,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>138.8250324045626</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4487536740638</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>157.4062932407282</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>139.1442698001815</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>55.02382422995085</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,28 +23697,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.75803617022393</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>152.9129528770118</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5670831552896</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.6288069585941</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>271.4839661633561</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23743,13 +23743,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>101.9637809410341</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>91.93589031931037</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>12.09831362247004</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23937,13 +23937,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>136.2002014355553</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>105.59122676227</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>283.0057127442609</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>135.7278480073533</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -24177,19 +24177,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>83.3620382482288</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,22 +24208,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>79.34524821016964</v>
+        <v>301.5612374798951</v>
       </c>
     </row>
     <row r="24">
@@ -24369,10 +24369,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>138.9222730026345</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24417,16 +24417,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>286.5131784221091</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>54.66621465809253</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.3793674507431</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24657,16 +24657,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>320.0060513681761</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>316.3597810857529</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24891,7 +24891,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>50.09081239937169</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>63.37316471551392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>117.396170648753</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>79.70558643327621</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25128,22 +25128,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>89.91938135359013</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,19 +25156,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>345.6143068222211</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>110.4880463696698</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>116.8153033264593</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>167.2951933926534</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>87.87253500827535</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>25.00705169752655</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>5.616862607170788</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>88.98361496077254</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>77.07284607501805</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>195.7797841207333</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>106.0097210556846</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>89.06786681082042</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25839,10 +25839,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>145.4647742025793</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>69.04514176270749</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25870,22 +25870,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>31.64997112634757</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>39.23943243968191</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>102.825131285842</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
-        <v>23.2015850865096</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>93.21719314674019</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923383</v>
@@ -26073,16 +26073,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>17.40933785016591</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>981128.472917717</v>
+        <v>981401.8083378621</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>981128.472917717</v>
+        <v>981401.8083378621</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>981401.8083378621</v>
+        <v>982994.2041637696</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>681485.417264756</v>
+        <v>634382.2521356113</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>681485.417264756</v>
+        <v>634382.2521356115</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>739172.4678884725</v>
+        <v>739172.4678884726</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>739172.4678884726</v>
+        <v>739172.4678884725</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>739172.4678884725</v>
+        <v>739172.4678884726</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>739172.4678884727</v>
+        <v>739172.4678884726</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>739172.4678884727</v>
+        <v>739172.4678884725</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>680684.375036397</v>
+        <v>634382.2521356114</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>680684.3750363968</v>
+        <v>634382.2521356115</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
@@ -26322,13 +26322,13 @@
         <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>329973.533380885</v>
+        <v>313984.0396688347</v>
       </c>
       <c r="F2" t="n">
-        <v>329973.5333808852</v>
+        <v>313984.0396688346</v>
       </c>
       <c r="G2" t="n">
-        <v>361440.762519697</v>
+        <v>361440.7625196971</v>
       </c>
       <c r="H2" t="n">
         <v>361440.7625196971</v>
@@ -26337,25 +26337,25 @@
         <v>361440.762519697</v>
       </c>
       <c r="J2" t="n">
-        <v>361440.7625196968</v>
+        <v>361440.762519697</v>
       </c>
       <c r="K2" t="n">
-        <v>361440.7625196969</v>
+        <v>361440.7625196971</v>
       </c>
       <c r="L2" t="n">
-        <v>361440.7625196971</v>
+        <v>361440.762519697</v>
       </c>
       <c r="M2" t="n">
         <v>361440.762519697</v>
       </c>
       <c r="N2" t="n">
-        <v>361440.7625196968</v>
+        <v>361440.7625196971</v>
       </c>
       <c r="O2" t="n">
-        <v>334953.0490188241</v>
+        <v>313984.0396688347</v>
       </c>
       <c r="P2" t="n">
-        <v>334953.0490188239</v>
+        <v>313984.0396688348</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8585.948846018267</v>
+        <v>9246.052035312925</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>611.8584928238263</v>
+        <v>3725.650154044539</v>
       </c>
       <c r="E3" t="n">
-        <v>407937.4024460753</v>
+        <v>445104.4206301507</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84443.17920680613</v>
+        <v>43956.37837923769</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6703.39546932795</v>
+        <v>7218.764569210179</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>498.5219644183622</v>
+        <v>3035.535920990524</v>
       </c>
       <c r="M3" t="n">
-        <v>138852.6845622488</v>
+        <v>118204.5367235503</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>395093.4645752797</v>
+        <v>394756.8150386527</v>
       </c>
       <c r="C4" t="n">
-        <v>395093.4645752797</v>
+        <v>394756.8150386529</v>
       </c>
       <c r="D4" t="n">
-        <v>394756.8150386527</v>
+        <v>392795.5642185676</v>
       </c>
       <c r="E4" t="n">
-        <v>87977.11790668222</v>
+        <v>69607.88054304066</v>
       </c>
       <c r="F4" t="n">
-        <v>87977.11790668222</v>
+        <v>69607.88054304066</v>
       </c>
       <c r="G4" t="n">
         <v>89092.20385207751</v>
       </c>
       <c r="H4" t="n">
+        <v>89092.20385207751</v>
+      </c>
+      <c r="I4" t="n">
         <v>89092.20385207749</v>
-      </c>
-      <c r="I4" t="n">
-        <v>89092.20385207751</v>
       </c>
       <c r="J4" t="n">
         <v>89092.20385207751</v>
@@ -26456,10 +26456,10 @@
         <v>89092.20385207751</v>
       </c>
       <c r="O4" t="n">
-        <v>78217.13405027025</v>
+        <v>69607.88054304066</v>
       </c>
       <c r="P4" t="n">
-        <v>78217.13405027024</v>
+        <v>69607.88054304066</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35185.31370463355</v>
+        <v>35305.07353582722</v>
       </c>
       <c r="C5" t="n">
-        <v>35185.31370463355</v>
+        <v>35305.07353582722</v>
       </c>
       <c r="D5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="E5" t="n">
-        <v>42109.32586142064</v>
+        <v>39480.67883887091</v>
       </c>
       <c r="F5" t="n">
-        <v>42109.32586142064</v>
+        <v>39480.67883887091</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26508,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>43789.12214945872</v>
+        <v>39480.67883887091</v>
       </c>
       <c r="P5" t="n">
-        <v>43789.12214945872</v>
+        <v>39480.67883887091</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74286.37903924537</v>
+        <v>73843.16555538436</v>
       </c>
       <c r="C6" t="n">
-        <v>82872.32788526372</v>
+        <v>83089.21759069694</v>
       </c>
       <c r="D6" t="n">
-        <v>82477.35909787327</v>
+        <v>80595.59207328504</v>
       </c>
       <c r="E6" t="n">
-        <v>-215377.4157446648</v>
+        <v>-241005.608609213</v>
       </c>
       <c r="F6" t="n">
-        <v>192559.9867014107</v>
+        <v>204098.8120209376</v>
       </c>
       <c r="G6" t="n">
-        <v>132605.4876515847</v>
+        <v>178553.8608503905</v>
       </c>
       <c r="H6" t="n">
-        <v>217048.6668583909</v>
+        <v>222510.2392296282</v>
       </c>
       <c r="I6" t="n">
-        <v>217048.6668583908</v>
+        <v>222510.2392296282</v>
       </c>
       <c r="J6" t="n">
-        <v>210345.2713890628</v>
+        <v>215291.4746604179</v>
       </c>
       <c r="K6" t="n">
-        <v>217048.6668583907</v>
+        <v>222510.2392296282</v>
       </c>
       <c r="L6" t="n">
-        <v>216550.1448939726</v>
+        <v>219474.7033086376</v>
       </c>
       <c r="M6" t="n">
-        <v>78195.98229614203</v>
+        <v>104305.7025060778</v>
       </c>
       <c r="N6" t="n">
-        <v>217048.6668583906</v>
+        <v>222510.2392296282</v>
       </c>
       <c r="O6" t="n">
-        <v>205818.870533241</v>
+        <v>204098.8120209377</v>
       </c>
       <c r="P6" t="n">
-        <v>205818.8705332409</v>
+        <v>204098.8120209379</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>300.6887886190096</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>300.6887886190096</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C4" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E4" t="n">
-        <v>584.7748399593131</v>
+        <v>513.9122855088556</v>
       </c>
       <c r="F4" t="n">
-        <v>584.7748399593131</v>
+        <v>513.9122855088556</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26810,10 +26810,10 @@
         <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26828,10 +26828,10 @@
         <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>584.774839959313</v>
+        <v>513.9122855088556</v>
       </c>
       <c r="P4" t="n">
-        <v>584.774839959313</v>
+        <v>513.9122855088556</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>300.6887886190096</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>77.05487559807699</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.969734065685305</v>
+        <v>11.99385170152445</v>
       </c>
       <c r="E4" t="n">
-        <v>557.1848146989969</v>
+        <v>474.328408547015</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>89.51243279524249</v>
+        <v>160.3749872457</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.62029119463068</v>
+        <v>27.59002526031622</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.969734065685316</v>
+        <v>11.99385170152445</v>
       </c>
       <c r="M4" t="n">
-        <v>557.1848146989969</v>
+        <v>474.3284085470149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.969734065685305</v>
+        <v>11.99385170152445</v>
       </c>
       <c r="M4" t="n">
-        <v>557.1848146989969</v>
+        <v>474.328408547015</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>89.51243279524249</v>
+        <v>160.3749872457</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>327.0930163603668</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>381.2557545470806</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>389.6824463205042</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.8484382006936</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>184.8555983757751</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>132.1058710430061</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.9668311656365</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>121.8247743700079</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>132.0247892607701</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>119.4489211987531</v>
+        <v>117.4791871330677</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>113.788814240182</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>84.64541897618032</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27517,7 +27517,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>120.8136714519383</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.06231945832479</v>
+        <v>65.76915485635664</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27578,22 +27578,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>151.6731001825387</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>261.2711772966547</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27624,22 +27624,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>356.3100788776309</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>381.2557545470806</v>
+        <v>394.5240408470375</v>
       </c>
       <c r="G5" t="n">
-        <v>389.6824463205042</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H5" t="n">
-        <v>326.8991488460811</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>182.8858643100898</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27672,7 +27672,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27718,7 +27718,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>174.5444375001908</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>200.321090886344</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>207.1802959547944</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W6" t="n">
-        <v>229.8752220029466</v>
+        <v>227.3936889116331</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>68.3113280568366</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,25 +27818,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R7" t="n">
-        <v>151.6731001825387</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>202.3252982336507</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>232.2927315747037</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>369.669416036174</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>202.7033418868072</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>122.2790926808335</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S8" t="n">
-        <v>181.4300443259292</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27937,22 +27937,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>113.3261780629074</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F9" t="n">
-        <v>121.5145094703553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>109.7534919028945</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H9" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>61.80660759109894</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28025,19 +28025,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>140.4009540981426</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>134.6371472471234</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>135.7231563018554</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>65.76915485635664</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>199.4461012748567</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.208799150227174</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>12.37961429726404</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>46.60222923913315</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
-        <v>102.5953168765937</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>153.7637849057099</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>190.7575718994748</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>212.2545537873273</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>215.6890543729103</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>203.6690578228389</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>173.8268288016055</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>130.5367092340948</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>75.93222962045776</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>27.54551063580174</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>5.291518280119455</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09670393201817386</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6467645641993792</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>6.246384080557164</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>22.26799047791723</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>61.10506788341592</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
-        <v>104.4382936847743</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>140.4301743451328</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>163.8753897973602</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>168.2126837388552</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>153.8817426058058</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>123.5036648952306</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.55892928271375</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>40.15613671406323</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>12.01336811133495</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>2.606915063593111</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04255030027627497</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5422256843949353</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>4.820879266711338</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>16.30620512707679</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>38.33535588672193</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>62.99676587788429</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
-        <v>80.61417129631613</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>84.9963406911079</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>82.97531768563594</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>76.64113582702235</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>65.57973186536562</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.40400708147045</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>24.38043850015772</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
-        <v>9.449514881682642</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.316782469687451</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02957594642154196</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.208799150227174</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>12.37961429726404</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>46.60222923913315</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
-        <v>102.5953168765937</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>153.7637849057099</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>190.7575718994748</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>212.2545537873273</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>215.6890543729103</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>203.6690578228389</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>173.8268288016055</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>130.5367092340948</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>75.93222962045776</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>27.54551063580174</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>5.291518280119455</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09670393201817386</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6467645641993792</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>6.246384080557164</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>22.26799047791723</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>61.10506788341592</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
-        <v>104.4382936847743</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>140.4301743451328</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>163.8753897973602</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>168.2126837388552</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>153.8817426058058</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>123.5036648952306</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.55892928271375</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>40.15613671406323</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>12.01336811133495</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>2.606915063593111</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04255030027627497</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5422256843949353</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>4.820879266711338</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>16.30620512707679</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>38.33535588672193</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>62.99676587788429</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
-        <v>80.61417129631613</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>84.9963406911079</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>82.97531768563594</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>76.64113582702235</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>65.57973186536562</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.40400708147045</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>24.38043850015772</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
-        <v>9.449514881682642</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.316782469687451</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02957594642154196</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34704,19 +34704,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M2" t="n">
-        <v>24.58512791403969</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N2" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O2" t="n">
-        <v>25.62029119463083</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P3" t="n">
-        <v>24.58512791403969</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N4" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>24.58512791403968</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>25.62029119463083</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="O5" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P5" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>24.58512791403968</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>25.62029119463083</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="O6" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P6" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N7" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>26.47527676494984</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>26.47527676494984</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O9" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35339,10 +35339,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>90.64602752198114</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>257.8193464318941</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>372.652371479938</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>431.4218540528871</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>423.6229151883035</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>354.3710276638975</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>264.3925412178186</v>
+        <v>125.1380125175632</v>
       </c>
       <c r="Q11" t="n">
-        <v>120.54601001955</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>231.0620917229939</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>372.7161398687177</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>487.4464196253418</v>
+        <v>254.3277295531423</v>
       </c>
       <c r="N12" t="n">
-        <v>516.2133459990755</v>
+        <v>79.97735909033671</v>
       </c>
       <c r="O12" t="n">
-        <v>405.1478174380909</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>302.8862789220502</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.72727405200144</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
-        <v>108.2041965566323</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>124.5802176529485</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
-        <v>127.1074900648645</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>101.226263741062</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>62.8582911302591</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>90.64602752198114</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>257.8193464318941</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>372.652371479938</v>
+        <v>390.027027707904</v>
       </c>
       <c r="M14" t="n">
-        <v>431.4218540528871</v>
+        <v>36.30093131326399</v>
       </c>
       <c r="N14" t="n">
-        <v>423.6229151883035</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>354.3710276638975</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>264.3925412178186</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>120.54601001955</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>231.0620917229939</v>
+        <v>132.5972930402757</v>
       </c>
       <c r="L15" t="n">
-        <v>372.7161398687177</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>487.4464196253418</v>
+        <v>513.9122855088556</v>
       </c>
       <c r="N15" t="n">
-        <v>516.2133459990755</v>
+        <v>513.9122855088556</v>
       </c>
       <c r="O15" t="n">
-        <v>405.1478174380909</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>302.8862789220502</v>
+        <v>21.17845723362748</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.72727405200144</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
-        <v>108.2041965566323</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>124.5802176529485</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>127.1074900648645</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>101.226263741062</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>62.8582911302591</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35971,10 +35971,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L32" t="n">
         <v>421.5361394435301</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>138.3897561047517</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856226</v>
       </c>
       <c r="N36" t="n">
         <v>559.3197334338902</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245897</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>3.87492489307968</v>
       </c>
       <c r="M41" t="n">
         <v>485.8144648060965</v>
@@ -37797,10 +37797,10 @@
         <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>225.4392838900324</v>
+        <v>208.5159078619339</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>67.85351217968184</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37867,19 +37867,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>63.73626307629385</v>
+        <v>513.9122855088556</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>79.97735909033668</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>358.8082792826106</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>421.5361394435301</v>
@@ -38028,10 +38028,10 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>412.0332799732381</v>
       </c>
       <c r="O44" t="n">
-        <v>206.1279478132666</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
         <v>308.9376163116797</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38104,10 +38104,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>70.22123370606431</v>
       </c>
       <c r="N45" t="n">
-        <v>85.45084610586511</v>
+        <v>513.9122855088556</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
